--- a/medicine/Pharmacie/Milrinone/Milrinone.xlsx
+++ b/medicine/Pharmacie/Milrinone/Milrinone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La milrinone est un médicament en perfusion intraveineuse, inhibiteur de la phosphodiestérase 3 et utilisé comme inotrope positif (augmentation de la contraction cardiaque) dans les cas d'insuffisance cardiaque grave et décompensée.
-Il est utilisé à partir des années 1990[1].
+Il est utilisé à partir des années 1990.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un médicament inotrope positif, moins tachycardisant que la dobutamine, avec un effet vasodilatateur et jouant également de façon positive sur la fonction diastolique du cœur[1].
-Il n'influence pas le pronostic de l'insuffisance cardiaque[2].
-Une forme orale a été testée mais son emploi entraîne une augmentation de la mortalité des insuffisants cardiaques[3].
-La milrinone inhalée  est utilisée pour traiter l’hypertension artérielle pulmonaire, pour faciliter le sevrage de la circulation extracorporelle et prévenir la dysfonction ventriculaire droite[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un médicament inotrope positif, moins tachycardisant que la dobutamine, avec un effet vasodilatateur et jouant également de façon positive sur la fonction diastolique du cœur.
+Il n'influence pas le pronostic de l'insuffisance cardiaque.
+Une forme orale a été testée mais son emploi entraîne une augmentation de la mortalité des insuffisants cardiaques.
+La milrinone inhalée  est utilisée pour traiter l’hypertension artérielle pulmonaire, pour faciliter le sevrage de la circulation extracorporelle et prévenir la dysfonction ventriculaire droite.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi vie est longue (plus de 50 minutes[1]) et son élimination est rénale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi vie est longue (plus de 50 minutes) et son élimination est rénale.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait de son effet vasodilatateur, il peut provoquer, dans certains cas, une hypotension[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de son effet vasodilatateur, il peut provoquer, dans certains cas, une hypotension.
 </t>
         </is>
       </c>
